--- a/traders_with_roi.xlsx
+++ b/traders_with_roi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,34 +453,1020 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4GQeEya6ZTwvXre4Br6ZfDyfe2WQMkcDz2QbkJZazVqS</t>
+          <t>6F9otthauxAqB5fpmdWR5FHd9TUz87nGTazprLnELz5W</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>+32.15%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>61.9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AYnY9F3PKUkAn8c4zLKbbVGTwUeoPsJ6MLw97tnomFiN</t>
+          <t>3nNqq6KrJoosWCstMGNPcZ1Z2wCuqULd9pBZNWHXxH4t</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+1.58</t>
+          <t>+1.86%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>71.05</t>
+          <t>74.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3nNqq6KrJoosWCstMGNPcZ1Z2wCuqULd9pBZNWHXxH4t</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+1.86%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>91oKxWSxSUJHHxEbhfNg8Q3dmzrsY2mcGRqXVvoMekou</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+5.59%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>F9CNKPKRS3FaMgQF4dq8nj5KF1FjTfCUFQvWnVr8ig9g</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+1.44%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>70.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>F9CNKPKRS3FaMgQF4dq8nj5KF1FjTfCUFQvWnVr8ig9g</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>+1.44%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>70.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DXz1f7CNzXqA4GwX4sGqfgUo4hjZnBtVSb855V8DLFDS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>+0.31%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>34.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3x2Ym4kSnkNzksaQo71rTaLgcyPuHdoV7QVfBcrDhRG4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-1.89%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HuTshmtwcQkWBLzgW3m4uwcmik7Lmz4YFpYcTqMJpXiP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>8SXxNaUZPCCgkvcXRf51Ttkw5YaroCccHUuwitW23ako</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-3.91%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HuTshmtwcQkWBLzgW3m4uwcmik7Lmz4YFpYcTqMJpXiP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HsjPW6DwDY3mCN55w8eDpFzP3a3CTPHvRcfJvcMAKFDa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>+0.99%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>59.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DDGniHdkFbtuh5ufizmoNeePVeaszZBePjZzjV5pvMwb</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>+1.8%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HVyGwkgyxihHtr2ffGc8GMnDUiSKk2gmKJYDyeYbSSTq</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-3.62%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>42.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3mRC94P2RKhAyqWw4T7tBnNtNfoNpeeqsxCk5NGAWjMK</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>+5.55%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>42.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>H7iiYcH8YtHcy7nimqSwbTq3ZKm2pY3KtUZZFRA83PJz</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>+0.81%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>61.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>H7iiYcH8YtHcy7nimqSwbTq3ZKm2pY3KtUZZFRA83PJz</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>+0.81%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>61.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HuTshmtwcQkWBLzgW3m4uwcmik7Lmz4YFpYcTqMJpXiP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HuTshmtwcQkWBLzgW3m4uwcmik7Lmz4YFpYcTqMJpXiP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>T14ZGxZWiHPs7kuCctfRgkdKLxwn7NAGeTtcNifia7x</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4QQqR7Ssm9GtF9DbwLgp6nJYELasr9tBEnvdn4zGUFLY</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-14.08%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>9ajwg4xSj3p5TvZ2NRRJFg4V2jms16trGRX8FopwwvRH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>+5.95%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AtTjQKXo1CYTa2MuxPARtr382ZyhPU5YX4wMMpvaa1oy</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>71.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BJWinokdMf92QxKLUWgFYq1QnB8ksx1t5MqsEM7PzViw</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>+0.88%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AtTjQKXo1CYTa2MuxPARtr382ZyhPU5YX4wMMpvaa1oy</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>71.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BJWinokdMf92QxKLUWgFYq1QnB8ksx1t5MqsEM7PzViw</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>+0.88%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>JCqpuC6kzE4Hw4eKGnANW6twrj61K5DLGgAGT4xFojYw</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-8.83%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>G87APusp4updPs4dpJ1rKTSJMP5Y67NS7HmjdpZh9TZ2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>+0.32%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>F97zjiGLsjZhr9df67TedWVLXCZefzm6a3tq3H6K5z1d</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-14.8%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GfiCvseRMefaoeFk4tmLaQgDiTiVhoRLUoryuZGFaJrU</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-18.37%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>E79VwBYTVaAQZRrCnpP3fzKQacGzYqovyVAn9wGe4eBM</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-12.61%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AE9U3E4cKwns2PT8iDSz3UUDp3JRc1kpgpFwWPEgp1SA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>+3.21%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>74UFsBexPyc1gDMfxL9gK4anghTyotCEuZqmN7nPSEeR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-4.68%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EhUfCAVat1hYXA9uttauqaC2BTqMrv6NM2KtRMaUSSuy</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>+4.66%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AE9U3E4cKwns2PT8iDSz3UUDp3JRc1kpgpFwWPEgp1SA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>+3.21%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DFpt8PJziup8stcUiKzdknhxTTBm4jxmF4172UbNiWMk</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>+7.95%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>43.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3Sht7CfqvLxaUaWxnZSXqa2Wvw9DtscN9nMtwbf8XQRL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>+16.25%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>71.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DDGniHdkFbtuh5ufizmoNeePVeaszZBePjZzjV5pvMwb</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>+1.8%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6PzuonWrLks1RYLFyfdtHhKMmvz1Vq6WoYyR2J8YXgUN</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>+4.3%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UxJ8LVJCwbbLsQCJXNe2G93rt1MGscbpb5dJbT7csaW</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>+4.44%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CFNDFSswVZZcUUVRsQDBJQdTPBpE3xZPyKUb2x2XM4VG</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-1.87%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7TNf8s7ZGZ439FAbte8488YxHN5cJ8LNUHBSoLhVyB7f</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-32.1%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RTSqj4kTKywNDPNQxtA7G3H1BMhsiDAEcYvmjLKaFVb</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-23.09%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>35.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>5sr3v6WU2BHGQDjHxY4itxwJFVBepGtdLEtLsQQCbmfM</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>-9.96%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>81DJgG6vRHR6g9d3nDgCf9DgsTTUiTi38EFjAYb3q9Yf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>+12.43%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>pussyApHwZA5ZQFehJfB1kz3hCc7CYhpUysSReaKPcf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>+2.14%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HsjPW6DwDY3mCN55w8eDpFzP3a3CTPHvRcfJvcMAKFDa</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>+0.99%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BJWinokdMf92QxKLUWgFYq1QnB8ksx1t5MqsEM7PzViw</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>+0.88%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>43.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>UxJ8LVJCwbbLsQCJXNe2G93rt1MGscbpb5dJbT7csaW</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>+4.44%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>8qUme817ro2AfgSwXXTs4dcVwfwzkAg8RZbTaXqUrGpz</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-73.14%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CFNDFSswVZZcUUVRsQDBJQdTPBpE3xZPyKUb2x2XM4VG</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-14.89%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3nNqq6KrJoosWCstMGNPcZ1Z2wCuqULd9pBZNWHXxH4t</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>+1.87%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3nNqq6KrJoosWCstMGNPcZ1Z2wCuqULd9pBZNWHXxH4t</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>+1.87%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AK3pDpjXwU8ttiyfRRJBQ6YtTS3SuEXj7szCnwR9KRzc</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>-4.96%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/traders_with_roi.xlsx
+++ b/traders_with_roi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,760 +453,760 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6F9otthauxAqB5fpmdWR5FHd9TUz87nGTazprLnELz5W</t>
+          <t>3xHzp1veq3wqA9kyx9up2ujohnp7bv2Dtf5esntiau2w</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+32.15%</t>
+          <t>+34.94%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53.33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3nNqq6KrJoosWCstMGNPcZ1Z2wCuqULd9pBZNWHXxH4t</t>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+1.86%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+          <t>3hy4DEpkPPiA2TEUTVJjivCJwtyTUcBjP3wdcPPrAJMi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-24.6%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>76.16</t>
+          <t>15.15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+          <t>8T5tXQNgz7n9iXrraJjK7oSU1FNiEkgouqCeNZtL7hUv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>+0.75%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>76.16</t>
+          <t>62.77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3nNqq6KrJoosWCstMGNPcZ1Z2wCuqULd9pBZNWHXxH4t</t>
+          <t>CkUZV387xnoGpF7wC2moMa6mPmAgCvTT4pWgzq4M9fCD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+1.86%</t>
+          <t>+1.7%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>22.87</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+          <t>9xpgCUZQ9stQGxc689shwCD6p49xRQwFYRoYfScvuWaQ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>+0.66%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>76.57</t>
+          <t>39.13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>91oKxWSxSUJHHxEbhfNg8Q3dmzrsY2mcGRqXVvoMekou</t>
+          <t>CkUZV387xnoGpF7wC2moMa6mPmAgCvTT4pWgzq4M9fCD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+5.59%</t>
+          <t>+1.7%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>22.87</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+          <t>CkUZV387xnoGpF7wC2moMa6mPmAgCvTT4pWgzq4M9fCD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>+1.7%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>76.57</t>
+          <t>22.72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F9CNKPKRS3FaMgQF4dq8nj5KF1FjTfCUFQvWnVr8ig9g</t>
+          <t>Fdc5MS5kW4o3wbnprqurUWRhZNTrNgXG7FXGdpyDswuF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>+1.44%</t>
+          <t>-6.01%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>70.91</t>
+          <t>36.84</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>F9CNKPKRS3FaMgQF4dq8nj5KF1FjTfCUFQvWnVr8ig9g</t>
+          <t>CfhkoyXziLyL1Y1RDzCfTLCGbUMgpZtH8QBfvQXYcndw</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>+1.44%</t>
+          <t>+2.49%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>70.91</t>
+          <t>63.64</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DXz1f7CNzXqA4GwX4sGqfgUo4hjZnBtVSb855V8DLFDS</t>
+          <t>5VT7759ERN92p6oLACERFDkbcrgaqmbC5wV5CXTjbh6b</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>+0.31%</t>
+          <t>+6.24%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>34.88</t>
+          <t>39.6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3x2Ym4kSnkNzksaQo71rTaLgcyPuHdoV7QVfBcrDhRG4</t>
+          <t>CkUZV387xnoGpF7wC2moMa6mPmAgCvTT4pWgzq4M9fCD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-1.89%</t>
+          <t>+1.7%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>24.49</t>
+          <t>22.72</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HuTshmtwcQkWBLzgW3m4uwcmik7Lmz4YFpYcTqMJpXiP</t>
+          <t>BTbRJktcS5jng8rd9zvkD4erMAF5awda547iXQnMWhK4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>+37.61%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>76.37</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8SXxNaUZPCCgkvcXRf51Ttkw5YaroCccHUuwitW23ako</t>
+          <t>CQWwTzJ1Na4Uus2YYzX2DPD2dAtQSBeKnRJYxsMAomZR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-3.91%</t>
+          <t>+0.56%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52.23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HuTshmtwcQkWBLzgW3m4uwcmik7Lmz4YFpYcTqMJpXiP</t>
+          <t>DPE41MUY4pmpJWm1T9DSzAjxQ5E7QaMexLtszktFuo3N</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>+2.28%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>76.37</t>
+          <t>40.51</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HsjPW6DwDY3mCN55w8eDpFzP3a3CTPHvRcfJvcMAKFDa</t>
+          <t>3PwscdqHZGyS7uVSkP7s9KkiqjSzUHMMTQphJoikxQUC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>+0.99%</t>
+          <t>+9.63%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>37.25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-2.01%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>76.36</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JD6rVaerbyz6wjQ433nrw6bFTgFrp46MiYmi8EtUAfsG</t>
+          <t>93zrvPiGtyJrzpHnVkbzTKz4Z9KQDNG8JMf5DweAFf4T</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>+103.25%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>76.36</t>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DDGniHdkFbtuh5ufizmoNeePVeaszZBePjZzjV5pvMwb</t>
+          <t>9vfDkVJiYY9xrG14HKPmzjY7tV16swNXmNWYzEytmVoz</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>+1.8%</t>
+          <t>+30.25%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>68.07</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HVyGwkgyxihHtr2ffGc8GMnDUiSKk2gmKJYDyeYbSSTq</t>
+          <t>FLGEe4XNpzDBPAYUCN4ZdS2PDonGbr8n6KAeWHEmj7tc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-3.62%</t>
+          <t>-4.02%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>42.86</t>
+          <t>66.67</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3mRC94P2RKhAyqWw4T7tBnNtNfoNpeeqsxCk5NGAWjMK</t>
+          <t>CjfphuzU5kmhcmyV1eWKbHifC1isxJPVQpzVBLHnRZw8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>+5.55%</t>
+          <t>-4.1%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>42.86</t>
+          <t>36.94</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>H7iiYcH8YtHcy7nimqSwbTq3ZKm2pY3KtUZZFRA83PJz</t>
+          <t>134bprb9d7pGX9HS5RqMBvPnzEki3GhhLBmmvTM8p8UP</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>+0.81%</t>
+          <t>-7.56%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>61.31</t>
+          <t>47.62</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>H7iiYcH8YtHcy7nimqSwbTq3ZKm2pY3KtUZZFRA83PJz</t>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>+0.81%</t>
+          <t>-2.01%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>61.31</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HuTshmtwcQkWBLzgW3m4uwcmik7Lmz4YFpYcTqMJpXiP</t>
+          <t>3URjd75Dx9whwdxzJSe3i23psWZhCnuUwx7oukRFRjbT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>-5.99%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>76.37</t>
+          <t>41.67</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HuTshmtwcQkWBLzgW3m4uwcmik7Lmz4YFpYcTqMJpXiP</t>
+          <t>3xHzp1veq3wqA9kyx9up2ujohnp7bv2Dtf5esntiau2w</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>+34.94%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>76.37</t>
+          <t>53.33</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>T14ZGxZWiHPs7kuCctfRgkdKLxwn7NAGeTtcNifia7x</t>
+          <t>C5xCqdLR3ZGZ12AfawEfHUzAw8LMgHmWeP1JyAfGm5Xp</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>+17.5%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.51</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4QQqR7Ssm9GtF9DbwLgp6nJYELasr9tBEnvdn4zGUFLY</t>
+          <t>6pWHCBSSGFkt9MY3twobWaD5FagoZ4Jr94xkyE8cRMQR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-14.08%</t>
+          <t>-3.15%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9ajwg4xSj3p5TvZ2NRRJFg4V2jms16trGRX8FopwwvRH</t>
+          <t>DtSMYuYRhnmxKjC8KNeNuYEfJzKDEMoNwegyqXuXtzb8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>+5.95%</t>
+          <t>-7.9%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54.55</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AtTjQKXo1CYTa2MuxPARtr382ZyhPU5YX4wMMpvaa1oy</t>
+          <t>GzykkGsdB6fYcJkKicVNNC9FcNqeaLVik52RdGjg737D</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-20.2%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BJWinokdMf92QxKLUWgFYq1QnB8ksx1t5MqsEM7PzViw</t>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>+0.88%</t>
+          <t>-2.76%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>43.78</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AtTjQKXo1CYTa2MuxPARtr382ZyhPU5YX4wMMpvaa1oy</t>
+          <t>CKXBsDHNaUbWwG5CAKGnj9Txc7prK2ZcJYkwJaUfsiAU</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-7.56%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>12.12</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BJWinokdMf92QxKLUWgFYq1QnB8ksx1t5MqsEM7PzViw</t>
+          <t>9sLHnJSFdz2YiBZQBvLbndJZ2yLZsLpetEXrdrUwP92i</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>+0.88%</t>
+          <t>-0.47%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>43.78</t>
+          <t>44.44</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JCqpuC6kzE4Hw4eKGnANW6twrj61K5DLGgAGT4xFojYw</t>
+          <t>7DUG6tjJkVoqVrJfdbhaT3QqrQdmXXejQ8LfwvGyyAcD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-8.83%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>32.43</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>G87APusp4updPs4dpJ1rKTSJMP5Y67NS7HmjdpZh9TZ2</t>
+          <t>3syk4J6XDbvxs36BZEg1LQ2WV7HYVw5V2eRn7tPg8MCU</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>+0.32%</t>
+          <t>-25.09%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>36.55</t>
+          <t>9.52</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>F97zjiGLsjZhr9df67TedWVLXCZefzm6a3tq3H6K5z1d</t>
+          <t>5Pi6YeyYKbuBvV97baewxqkntJXWAwUX9gusRpZwrv6q</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-14.8%</t>
+          <t>-2.51%</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>26.47</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GfiCvseRMefaoeFk4tmLaQgDiTiVhoRLUoryuZGFaJrU</t>
+          <t>FWpczoGkDfaeLUAtJsQsHRVdterv5aN3nxwpMecUmuXw</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-18.37%</t>
+          <t>-1.29%</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>26.49</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>E79VwBYTVaAQZRrCnpP3fzKQacGzYqovyVAn9wGe4eBM</t>
+          <t>69Rsrts3rzHYT2wyAN9acjFZaTXFGGPhNpmsFAvufeJG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-12.61%</t>
+          <t>+4.03%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46.67</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AE9U3E4cKwns2PT8iDSz3UUDp3JRc1kpgpFwWPEgp1SA</t>
+          <t>DFW5jNB2r2bNicHfhkunpapVB2d42GzNZ3yQTBuHGq6p</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>+3.21%</t>
+          <t>+6.81%</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>36.36</t>
+          <t>34.11</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>74UFsBexPyc1gDMfxL9gK4anghTyotCEuZqmN7nPSEeR</t>
+          <t>4VvkQU1EHumsfnDVnrbq2Dx2BrMTWQ5VuVrDJLV7UuJt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-4.68%</t>
+          <t>+1.49%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EhUfCAVat1hYXA9uttauqaC2BTqMrv6NM2KtRMaUSSuy</t>
+          <t>CfhkoyXziLyL1Y1RDzCfTLCGbUMgpZtH8QBfvQXYcndw</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>+4.66%</t>
+          <t>+2.49%</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>56.14</t>
+          <t>63.64</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AE9U3E4cKwns2PT8iDSz3UUDp3JRc1kpgpFwWPEgp1SA</t>
+          <t>7DUG6tjJkVoqVrJfdbhaT3QqrQdmXXejQ8LfwvGyyAcD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>+3.21%</t>
+          <t>-0.87%</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>36.36</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DFpt8PJziup8stcUiKzdknhxTTBm4jxmF4172UbNiWMk</t>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>+7.95%</t>
+          <t>-2.76%</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>43.25</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3Sht7CfqvLxaUaWxnZSXqa2Wvw9DtscN9nMtwbf8XQRL</t>
+          <t>HkeA4WFiAPTLFjTwwrH1fNUXwBVdeNDamP2CyNAFSNwk</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>+16.25%</t>
+          <t>-3.23%</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>71.08</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DDGniHdkFbtuh5ufizmoNeePVeaszZBePjZzjV5pvMwb</t>
+          <t>BdgDZg4cY5Cbamoon5DUmjJnNLJUHNLsgGWd9KgMJLTx</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>+1.8%</t>
+          <t>-3.66%</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>67.87</t>
+          <t>49.61</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6PzuonWrLks1RYLFyfdtHhKMmvz1Vq6WoYyR2J8YXgUN</t>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>+4.3%</t>
+          <t>-2.01%</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1218,182 +1218,182 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UxJ8LVJCwbbLsQCJXNe2G93rt1MGscbpb5dJbT7csaW</t>
+          <t>9ZvZezaDLvMofs26VQsN3aXM8XZvtRRmo1R7T9wt7WHF</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>+4.44%</t>
+          <t>-4.47%</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>30.28</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CFNDFSswVZZcUUVRsQDBJQdTPBpE3xZPyKUb2x2XM4VG</t>
+          <t>4VvkQU1EHumsfnDVnrbq2Dx2BrMTWQ5VuVrDJLV7UuJt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-1.87%</t>
+          <t>+1.49%</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7TNf8s7ZGZ439FAbte8488YxHN5cJ8LNUHBSoLhVyB7f</t>
+          <t>3EyjUQdPeBZ1KU4BMivGxFhPGYSpy372Q9Spw1o4H6Ue</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-32.1%</t>
+          <t>+1.96%</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RTSqj4kTKywNDPNQxtA7G3H1BMhsiDAEcYvmjLKaFVb</t>
+          <t>4VvkQU1EHumsfnDVnrbq2Dx2BrMTWQ5VuVrDJLV7UuJt</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-23.09%</t>
+          <t>+1.49%</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>35.29</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5sr3v6WU2BHGQDjHxY4itxwJFVBepGtdLEtLsQQCbmfM</t>
+          <t>Ghq28NSDTo3ZMU2kZFsCEBFkHd3Yd2kduZCTnV3ptE4w</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-9.96%</t>
+          <t>+10.22%</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>81DJgG6vRHR6g9d3nDgCf9DgsTTUiTi38EFjAYb3q9Yf</t>
+          <t>4c9x3547sTgoYb4s5YHhJMbbBAQxDtN5EsL8bW6KeWkJ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>+12.43%</t>
+          <t>-18.45%</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>21.05</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pussyApHwZA5ZQFehJfB1kz3hCc7CYhpUysSReaKPcf</t>
+          <t>EtQ2EdSJ6fwnBT7VT1QASV2UycUffbDdn2xzmG7Kusum</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>+2.14%</t>
+          <t>+0.92%</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52.61</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HsjPW6DwDY3mCN55w8eDpFzP3a3CTPHvRcfJvcMAKFDa</t>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>+0.99%</t>
+          <t>-2.01%</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BJWinokdMf92QxKLUWgFYq1QnB8ksx1t5MqsEM7PzViw</t>
+          <t>8NZA9MkkMJkJiSiHKe7PKFe2d7UCyDxWTqsAmYKqNVpY</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>+0.88%</t>
+          <t>-0.05%</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>43.57</t>
+          <t>45.28</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UxJ8LVJCwbbLsQCJXNe2G93rt1MGscbpb5dJbT7csaW</t>
+          <t>3kzxtsPkugWMdaLaMQReiivbHfrBSrSbYh1B4XsV1ZkS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>+4.44%</t>
+          <t>+156.2%</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>42.86</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8qUme817ro2AfgSwXXTs4dcVwfwzkAg8RZbTaXqUrGpz</t>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-73.14%</t>
+          <t>-2.01%</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1405,66 +1405,2106 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CFNDFSswVZZcUUVRsQDBJQdTPBpE3xZPyKUb2x2XM4VG</t>
+          <t>9ktgxfb92ULLwcdcstwyo5GDULXKZEW818ZFsxKJE7c2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-14.89%</t>
+          <t>+61.22%</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3nNqq6KrJoosWCstMGNPcZ1Z2wCuqULd9pBZNWHXxH4t</t>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>+1.87%</t>
+          <t>-2.01%</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3nNqq6KrJoosWCstMGNPcZ1Z2wCuqULd9pBZNWHXxH4t</t>
+          <t>AdbjSafK6FAndanb1CjMhrz9xEe7HAaNPcStp64HjuL8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>+1.87%</t>
+          <t>+18.61%</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AK3pDpjXwU8ttiyfRRJBQ6YtTS3SuEXj7szCnwR9KRzc</t>
+          <t>D3HyLd3mfwKR3dQHdw3xD8Lhka8ybAE4f6G62mMUvpT7</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-4.96%</t>
+          <t>-6.58%</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>9ZvZezaDLvMofs26VQsN3aXM8XZvtRRmo1R7T9wt7WHF</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>-4.47%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>9LY9x6LBgokvSfqzfawcMS3XtrMN6rTTG3VWPxSBxHEN</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>-7.98%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4YmHojfLGBFyFztmJ4EwBeie87wKy7hA7yLMVLe2cH3w</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>-5.63%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>5jTz2x9b5BfpwL1uVKPq77BbyaBUAF7mVGztS1wkoJ4w</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>+14.71%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>62.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>F4RMpjLMJZKmrYBxjpVadty7e326XUziLkYTDtNtpo2e</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>-6.29%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4rwP7Ny473EBq8rynumRF4qAUBuCBvcSfzAfsEuVpDK5</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>-13.05%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>AoMfJjiwemaT1wtsrb8zAxdKxhuXgxJYLHcbof9WYoKs</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>AoMfJjiwemaT1wtsrb8zAxdKxhuXgxJYLHcbof9WYoKs</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>wwVbAyXBXjqtWp5x9kWHj1mmmk2V9c7CmKccrB3eBZF</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-2%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>8jjaSDQ96HeSTyYKww78jpe5Rj7BExLtzPLYXxKKBeQv</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>-0.85%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Cogv5PSB1sPp5j9zxm73kd7RJsEo2Hf3e1TfUmXCfXku</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>+18.03%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>38.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FNtuTaSaGM4tjxR59zwSNKZQNCw9N5UaAWDvqtjiPaAk</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>-17.92%</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>GYMZkSV5uHq52pGhYcGR2eH5H7L6wrCwywRn4v5evycM</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-13.85%</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4a5iAKLFcpFSWyGXqpw8nH3V3pUfFcWmqye6v6vyrZAi</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>-7.11%</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HRTr5Np9JMrn5G54LZtNnH851oDPUJ2a6DU7dJ6g12kD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>+0.66%</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FE6nn7nvghPVkTFQ89oS6VwLMFZP6msH7z14KY2kVnZo</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>+0.29%</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>666SErLBhpNp1eGsLWd2xjT3e987k4ginrLrBpL21fGb</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>-0.02%</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>46.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CRVL4xNq9REQW4bGgiTZ8cpFFZWGLb2RaStpLuEDbCrE</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>+3.47%</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BQ1npN6TUmC39orcATVVZQMRfubp8y9JRPtqbkrzcxEy</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>-19.93%</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3ixAfq9FhA6dgAfK8c3R73FriRUYJvdrZp5KJ6WPNpNn</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>-3.77%</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BXJMihUuZ5QM5UgbJQ4jvop5hv22vemyHyEaxi2DVEvL</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>+1.23%</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>FBT1ECPBSYNJAKF8JduQQR8aGVFqaTFqSQeio1UUjXJ1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>+4.77%</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>48.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>6v2AP2EGwqzswuTBEZ9N5QmEGJEhncyzZwv9KB3fwiZf</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>+29.02%</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>HwZc3LyCGutWRfyzFRZXCXJPcXJeVfrNFUvYpyJbM99S</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>+1.89%</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>EXcD2EU4w8eer2rKXsK4Ut7ow6kbUhTaYPsrFfSr6Sxr</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>-33.76%</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CYdn6WZAtridGC2n6E8rPGZ6P3pfdPhDrKh3E2MCRrEP</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>-1.49%</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>6vKzT9rvTLp2AsLPumqTRDoXy2NSvDa8nB4S2cEmYPHM</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>+1.72%</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>67.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4VvkQU1EHumsfnDVnrbq2Dx2BrMTWQ5VuVrDJLV7UuJt</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>+1.49%</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>6vKzT9rvTLp2AsLPumqTRDoXy2NSvDa8nB4S2cEmYPHM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>+1.74%</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>67.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4VvkQU1EHumsfnDVnrbq2Dx2BrMTWQ5VuVrDJLV7UuJt</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>+1.49%</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7DUG6tjJkVoqVrJfdbhaT3QqrQdmXXejQ8LfwvGyyAcD</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>AzgPJx7CYwFvcfH5KxKkC6bywDFXFizQTEnfPHmgi6xm</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>-2.11%</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>31.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>88S7zE8Unyi1GPcJMZYBn4HnQTMa3nPZB82Ntb7fV8op</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>+21.01%</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>6EC9S11jVRM1Wnt1dcXrYouoUd1RotwApnjLjHgD3H1M</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>+1.17%</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>33.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2dRmnaXScDTGDn3Ub6BLsJVRZV7k3DodCRYxZt7pqZRz</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>-5.98%</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CBDNz1qSk22wKnpZqC1jj7xSm66BwGaMRS8yxPip35N4</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>+0.74%</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>44rFAuFJsHdRAva3GSRavUmFefq9WrPenZmzdMqGAuSn</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>-7.7%</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>34.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4VvkQU1EHumsfnDVnrbq2Dx2BrMTWQ5VuVrDJLV7UuJt</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>+1.49%</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>7DUG6tjJkVoqVrJfdbhaT3QqrQdmXXejQ8LfwvGyyAcD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Q8rZq4KNVFez6gWt6KN2B86AzQP8KYisdcFxs32mzR3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>47.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>FcAjvRcjDCxD67aaiJ6m47aGQ1coELUrDtTh4jDKhQSN</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>8LJqzm5r9VgnnrXHiSWhFpA1uugMngGAajE1DqQ8cbVY</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>+1.36%</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4F5KbxxUaujhghdWzTPeJw9apBvg6zvJKKv6ikBuvAA1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>+0.76%</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>42.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CBDNz1qSk22wKnpZqC1jj7xSm66BwGaMRS8yxPip35N4</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>+0.74%</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>9zAVccxSXCtnHm3zJd1d7zZBLMzUBbfvtjitSmaD3rRR</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>+0.92%</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>DMErFNGz9vzhkixXiwwYpmdrX5swC6JFbcZ99ZNbyVv1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>+24.62%</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6vKzT9rvTLp2AsLPumqTRDoXy2NSvDa8nB4S2cEmYPHM</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>+1.74%</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>67.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>FmQbAruU5g8kjJzoJtFeu76QxWANRbPM1mn59LHiCCPz</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>+0.34%</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>6cmXK8YDg3H7vPwjF2YXcWyhkggLqoHaF7JeWGD8aToa</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>+2.21%</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>6cmXK8YDg3H7vPwjF2YXcWyhkggLqoHaF7JeWGD8aToa</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>+2.21%</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4XzCafJHJhWDbtfTJatifCR9XF8wFafmPWz5UFURHcSW</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>-2.81%</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>52.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7bTkvRTSPuxH7eYWFp39zpUKmBBB8CFYRHB1Xmkboy25</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>-24.39%</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4VvkQU1EHumsfnDVnrbq2Dx2BrMTWQ5VuVrDJLV7UuJt</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>+1.49%</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>7DUG6tjJkVoqVrJfdbhaT3QqrQdmXXejQ8LfwvGyyAcD</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>79hza8HPsprzTtpKdFkm7nrTcVh8XeRxJp6UcAsHE2qE</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>-5.62%</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>7DUG6tjJkVoqVrJfdbhaT3QqrQdmXXejQ8LfwvGyyAcD</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>AoMfJjiwemaT1wtsrb8zAxdKxhuXgxJYLHcbof9WYoKs</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CBDNz1qSk22wKnpZqC1jj7xSm66BwGaMRS8yxPip35N4</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>+0.74%</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>EtQ2EdSJ6fwnBT7VT1QASV2UycUffbDdn2xzmG7Kusum</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>+0.92%</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CQWwTzJ1Na4Uus2YYzX2DPD2dAtQSBeKnRJYxsMAomZR</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>+0.56%</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>52.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>4c9x3547sTgoYb4s5YHhJMbbBAQxDtN5EsL8bW6KeWkJ</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>-10.52%</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7ZXNmFRr2eMi9mhGgbFikzJmW6xznkCbHSRXTqnt3wCy</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>mui8p1uVz9hHshZEKUnGt6PcAzA5jWkaQNNbNL1BdZ4</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>-2.09%</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1s6M1nHxjt5vebHXHMZ36YuB6zRx24vNNhVppLQh8KE</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>-15.06%</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>HEqFh9LH7M89Q1TYiSPYVoNY9ewX4RmgpDR7dm21sR9m</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>-1.58%</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>44.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7DUG6tjJkVoqVrJfdbhaT3QqrQdmXXejQ8LfwvGyyAcD</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7DUG6tjJkVoqVrJfdbhaT3QqrQdmXXejQ8LfwvGyyAcD</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>32BGubz3baGYhA77RTSgpyFkM8VrMQDEEbfoKjyH8U2j</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>+10.77%</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>4SD43yZq5Ba9VNB2Yy2bFsFeSU6Ah5LfXaSiBc1DfREJ</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>+2.11%</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>CBDNz1qSk22wKnpZqC1jj7xSm66BwGaMRS8yxPip35N4</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>+0.74%</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>6EGdXCT8Lh6H1Q7UvNaLRxmmsJ56UxfuYbLzwTMWeGhE</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>-1.51%</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>AoMfJjiwemaT1wtsrb8zAxdKxhuXgxJYLHcbof9WYoKs</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>+0.54%</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7abGHNWB2iA8ytCy68k466X7wXMZdQ5FPYM86ArEcacB</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>-12.36%</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>8xdFZQB7id3p3D8WgGzE2FCNtBa9wa6VoQ7dvjc1QUxZ</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>-16.41%</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>EtQ2EdSJ6fwnBT7VT1QASV2UycUffbDdn2xzmG7Kusum</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>+0.92%</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>FmQbAruU5g8kjJzoJtFeu76QxWANRbPM1mn59LHiCCPz</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>+1.85%</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ktJjCEgbEXHkyfvmb1GdWz5oQ2J8mrnyH9bTJwj5qS9</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>+0.46%</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>45.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>9J9woMgWy4iUPkBPXPuSAxB8m4wPhVzQ39HXAvLWMNER</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>-5.18%</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>4VvkQU1EHumsfnDVnrbq2Dx2BrMTWQ5VuVrDJLV7UuJt</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>+1.49%</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>FLGEe4XNpzDBPAYUCN4ZdS2PDonGbr8n6KAeWHEmj7tc</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>-5.09%</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>HPTLaWBUjGnU7PppPLGs9Do6SaybnYehZwquUzroLzLR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>4unNyjyfbZVigcVf1Qeq5TJXW2tvbtf9cMirPxSccrrT</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>-2.83%</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>7yvvWUzzZACWb8X4TUf6cYTpWPvPJQi3LVzyHr2Bymvt</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>CCPBk2Yo8Lmd747cGVsGBDL1xoUiZG2BPxfNbCihzuo6</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>52.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>FtVvhQjs43ZS3v3n2wtFoqgtrzFCNxNXcfDAR569g42i</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>+10.02%</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>DpEtt1qqvw27eAs2Yrz6AuJyJzZG84gwMCBpJsvvqmsA</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ACnkQ87xyk8jfTVPxxSMzREc54v22wKAmD22y3vNCte5</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>+3.56%</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>6wRCEa63ksmFY4T6MVpQ7qKEe7fJATPyA2y12rnJTo1B</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>-3.84%</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>6V31Bf9zMMBW8YrETcnqyWJ8MEkE59GqHzZkukj26k5Q</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>+3.06%</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>49.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>HwZc3LyCGutWRfyzFRZXCXJPcXJeVfrNFUvYpyJbM99S</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>+1.89%</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>3cjLQivy66bhSmRi94Dymmu5GVoswyCd26MEbN5WnLxh</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>-2.77%</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>5DE2RkWUEQz4SZWewuF6uXNZFpmkhEL6GKGSq55Rxq7P</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>+2.88%</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>FqujLCey8L38WsTBGP1FWGBS5CkFb4N7oRK8Ee2DXq29</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>-0.36%</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2pSt9v4UcQiuUvdum1cvGeaZuGJjpHSdn7W8Uawb7SGP</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>-7.57%</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>CVA6h278YDcSfWyUznWq65c5ds5W6ZxDLVuWwQeyJKae</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>-2.1%</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>FCmpJiMJ3HWNmgCLS1oQgc4yXVCFXyonmyQty44FqgGj</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>+5.61%</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>CVA6h278YDcSfWyUznWq65c5ds5W6ZxDLVuWwQeyJKae</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>-2.1%</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>HBz1TCiSFN2We3gubg7k3H5Rv78MTqb6x7nFuriET3KG</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>+1.62%</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>mui8p1uVz9hHshZEKUnGt6PcAzA5jWkaQNNbNL1BdZ4</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>-2.09%</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>HV1KXxWFaSeriyFvXyx48FqG9BoFbfinB8njCJonqP7K</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>D8Ahzc9BAjZFrPJZUfQkNPUVaf6msMHZ1CzS5aBgvk6x</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>+32.24%</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>EtQ2EdSJ6fwnBT7VT1QASV2UycUffbDdn2xzmG7Kusum</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>+0.92%</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>FmQbAruU5g8kjJzoJtFeu76QxWANRbPM1mn59LHiCCPz</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>+1.85%</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>7yvvWUzzZACWb8X4TUf6cYTpWPvPJQi3LVzyHr2Bymvt</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>-2.33%</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>7APaXM8YiWHmYUTvEVhhZaKPiUUTFDE8sPnqrXDqtyRv</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>+1.23%</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>6CEuztXZfpdzk1FXPcthcueRymwm4Kdi3RBXYCtUbwhv</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>-9.44%</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>7DUG6tjJkVoqVrJfdbhaT3QqrQdmXXejQ8LfwvGyyAcD</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2kRV6YddP9TQrYMRFiyHeWgj6Ycd1f6GybFRQcnEbxdn</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>-5.38%</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>HuYgRfRjQF6KaVxr2CSc9RmhB7cGWTTMRAaivhEcjdFN</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>-7.08%</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>9zAVccxSXCtnHm3zJd1d7zZBLMzUBbfvtjitSmaD3rRR</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>+0.92%</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
         <is>
           <t>0</t>
         </is>
